--- a/data/Map010.xlsx
+++ b/data/Map010.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A04D5B9-6165-48E9-ABBA-F178A9D531AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t>イベント実行</t>
   </si>
@@ -862,21 +867,808 @@
   <si>
     <t>お金</t>
   </si>
+  <si>
+    <t>\n&lt;Shina&gt;Ha!
+There's no way that would work on a succubus, nyan.
+Moron, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ho ho～...
+Even though you appear to be a cat, you are indeed still a succubus.
+You didn't revert back into a wild animal.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Please let me know if you feel a shock.
+Here we go.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I didn't feel a thing.
+Don't look down on me, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaaahhh!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Wh-what just...
+Hah... Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaah!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're fucking dead!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyahaaaa!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaaaahh!</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Then we'll turn it down just a pinch this time.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I sent a weak electric impulse to one of your sensitive spots.
+Interesting, so this does affect succubi as well.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Hmmm...
+How fascinating.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hey! Stop this!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Wait! Please stop!
+This is too cruel!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Shina!
+Shina, are you alright!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ara ara.
+We'll play with you two a little later.
+Please keep quiet until then♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Now then, Ms. Slimy.
+How many times can your body divide?
+We're going to tear you to pieces and find out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Hmmm.
+If you're anything like a normal slimy, you've probably got
+a nucleus somewhere...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ah, but if a normal slimy's nucleus is damaged,
+then they die. You'll probably be fine since you're a succubus.
+Don't worry about a thing.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;The experiment is now over.
+Thanks for your cooperation.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;In this next experiment, \nwe'll increase your salt content.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Stop it!!
+Get your hands off of Lime, nya!!
+I'm gonna kill you!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What!!
+No, no! Please don't!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I'm scared～!!
+Eeeeeeeek...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Fweeeehh～...
+That was nothing～...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ehh!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Aaaaahhh～!
+So salty～～～～!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Stop that!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;You've got no morals...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Uhhnn...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;How horrible...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Hah...! Aaah...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ufufu♥
+It seems the aphrodisiac gas is working.
+You can barely remain standing.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Meria...!
+Are you hurt!?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Alsy...!
+Are you ok!?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Fine then. Leave this to me, Lily.
+I'll take care of her.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Lily, leave it to me.
+I'll handle this one.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I read your diaries. I know you're not garbage.
+I will absolutely save you all.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I've read your diaries, and I know you're not garbage.
+Leave everything to me.</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're late, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;How'd you get yourself caught so easily, nya!
+You dumbass!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;\n[1]!
+I hate you, nya!
+But I'll give you a reward later, nyan!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily-!
+\n[1]～...!
+Heeeeeeeehhh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily-!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;\n[1]...!
+You can do it-!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We're here to save you!
+We just have to quickly take care of something.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Chocolat?
+What a stupid name.
+(Is she a succubus...?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You don't need to introduce yourselves.
+I know exactly who you are.
+You're the creeps who have been spying on us.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I don't appreciate this one-sided relationship.
+It's so creepy.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...!
+You spied on our lives, and you dare to compare us to trash...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;\{WE\. ARE\. NOT\. GAR\.-BA\.-GE---!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Shit!!!
+You coward!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;But...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+I'm surrounded by peeping toms.
+You ever heard of privacy, huh? Privacy?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hahh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'll let you off this time.
+\n[1]. I'm counting on you.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Now! Finish her!
+Show her the power of my semen slave!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hah...\. Hah...\.
+\n[1]...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Hah...\. Hah...\.
+Brother...\.
+I knew you'd come...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I've been expecting you. Ms. Lily. \n[1].
+My name is Velvet.
+I am the head maid of this estate.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Mm, I know you well.
+I expected you to say something like that.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;We gained nothing from watching you
+three little succubi fooling around.
+You were utterly worthless.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;No, it was actually quite disturbing watching three monsters
+pretending that they were human. It felt like staring into a dumpster.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Oh, I'm not comparing you to garbage.\.\.
+I'm telling you that you're garbage.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;There.
+I just needed you to take one more step forward.
+Thank you for cooperating.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I'm Dr. Chocolat.
+I research monsters here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Woah! This is weird. It's the first time
+I'm seeing you outside of a TV screen.
+It's like I'm meeting a storybook character.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;It's so nice to meet you, Ms. Lily.
+Like we said before, we've been observing your entire life
+for a very long time now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I thought that I would learn all sorts of secrets
+and things about succubus ecology, but...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Day in and day out, I just watched you loaf around.
+You sleep, eat, play, argue, take baths, and go back to sleep.
+Frankly, it felt like a massive waste of time.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Now, that just leaves \n[1].
+But you've still got a chance.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;The little hunter who's defeated so many succubi♥
+There's only one thing that can harm a succubus...
+Teach me all of your pleasure attacks.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Can you bring me to orgasm?
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Now, let's give ourselves some privacy.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Wowww♥
+What kinda sexy things are about to happen to me♥
+I’m simply trembling♥ Gulp...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Or perhaps I'll end up being the one
+bullying \n[1]...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;You'd better try your hardest. Don't let all
+these ladies see you squirting pathetically.
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ahn♥ Ahn♥ Ahn♥
+Incredible...♥
+Hah... Hah...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;More...♥
+I want some more...♥
+Uheeheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;One more...♥
+Please, one more time♥
+Let's fight♥ Let's fight♥ Eheeheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Dummy! Shortstack!
+Show my brother your O face!</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;.\..\..</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Owwwww-...
+Where am I?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Who are you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Well?
+Who are you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Who are you?
+You're scaring me!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Dr. Chocolat?
+(Is she a succubus...?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Monitoring us...
+Have you been watching us this entire time?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Let me out! I'm gonna kill someone!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What are you gonna do to us, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What a stupid name, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You guys better watch your backs, nya...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;What the hell...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Must not be crossed...
+What does that mean?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;The mansion's secret?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Monster research...?
+But what for?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;You're all awful for peering into their private lives.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;What in the world...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brother...?
+I don't understand what you mean.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;The mansion's secret?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Monster research?
+Why would you do that?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;So this is all going according to your plan?
+I feel sick...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I apologize for your rough handling.
+My name is Velvet. I am the head maid of this manor.
+Pleased to meet you.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Speaking bluntly, \n[1] has crossed
+a line that must not be crossed.
+We've taken these measures as a result.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Sigh...
+It would have been better if they had defeated Lily and
+gone home. This is such a mess.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Now now,
+Please don't be impatient.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;There's someone I'd like to introduce you to.
+Come in now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Who are you!
+Get away!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Chocolat! Come in here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;\}Don't call me Mama in public.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Yes. We've seen it all.
+You act like such good friends.
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I'm Dr. Chocolat, the beautiful genius scientist.
+Nice to meet you.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Yes, Mama.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Well then, I'll keep it brief.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;If \n[1] was devoured, or if Lily was destroyed,
+either situation wouldn't have made a difference to us...
+However, a problem did arise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;In reading Lily's diary, \n[1] is likely
+to have discovered this mansion's secret.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;This is an institute for researching monsters.
+The mansion on the surface is merely a front to camoflauge it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Therefore, I couldn't allow you to return home.
+So I've taken you hostage to lure \n[1] and Lily here.
+That's about it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Do you understand?
+If you don't, I'm not explaining a second time.
+I've already wasted enough time.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;That's not my concern.
+I'm here to research. Someone dumber
+than me can make use of my findings.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Curiosity is the most precious emotion.
+Information is more abundant than air, \nand more valuable than diamonds.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;By the way, I've been gathering your magic power.
+Little by little every day so you wouldn't notice.
+It's been a magnificent help for my research.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Now, while we wait for \n[1] and Lily to get here,
+we'll run some experiments.
+Don't worry, nobody is going to die.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Kuh...
+How dare you...!
+How could I lose...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;No more...
+Owwww...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ha!
+We've still got our hostages though.
+\n[1], surely you realize the situation you're in.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You just don't know when to quit!
+Accept your defeat!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Look here.
+This switch controls all the equipment in this lab.
+You could open the doors and release everyone...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You could also blow it all up, burying us all alive.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;You bastard...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;How could you...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Now, be good and submit to us.
+You never stood a chance in the first place.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Th-That's right. This is our trump card.
+Something we saved until the end.
+We've been holding onto this right from the start.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ohohohohoho!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Kuhihihihihi!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet &amp; Chocolat&gt;Ohohohohohohoho!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Father warned me some bad guys were gonna
+blow up the lab! It was true!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Ako!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Oh no!
+I completely forget about her!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;What can this machine do.
+Hmmm... Amazing.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Y-You give that back...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You must be Ako!
+You love money! Isn't that right?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hey!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Seriously!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Woah! There's so much here!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;One-... Two-... Three-...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Y-yes!
+Now I gave you the money!
+Hurry up! Hand over the switch...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ehh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Why?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;What do you mean, why...
+I gave you the money, didn't I?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Then give me my money back!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;That's just basic commerce!!
+I gave you my money, so hand over the goods!!
+That's the whole premise! Business 101!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Reputation is the basic premise of business.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;With no reputation, you shouldn't have made a \ndeal in the first place.
+I guess you didn't know the basics of business after all.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;\{YOU FUCKING BRATS!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hah...\. Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;\}Mama...
+Buy me a little time...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I lost my temper there. How unlike me.
+I wish you hadn't seen that.
+Please accept my apologies.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Lily, may I ask you one last question?\.\.
+I had always believed that succubi were
+prideful, solitary creatures.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I thought it was beneath a succubus to care about others.
+And yet you've asked a human for help to rescue your friends.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;How could you sink so low?
+Don't you feel filthy right now?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+Despite how it looks, I'm a high ranking succubus.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;But since I share my prey 3 ways, and I refrain from
+draining my semen slaves to death...
+My magic power has decreased quite a bit.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Despite all that, I don't
+regret anything in the slightest.
+So it's as you say. I am filthy. Are you satisfied?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;So that's how it is.
+What a lovely answer. Thank you very much.
+It's refreshing to finally hear it out loud.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;\}Mix magnesium with sodium nitrate...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Mama...!
+Cover your eyes!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaa!? Too bright...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What the!? What is this light!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;My eyes... My eyes～～!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Oh no!
+They've escaped...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Oh no...!
+Did they escape...!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;But we were so close...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Oh my goodness...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;My eyes hurt...
+Dammit.
+I've got to get everyone out for now...</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;...?
+Now which button is it...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Don't blow us up!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I said don't blow us up, nyan!!
+Dumbass!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Don't look at me! I haven't touched anything yet!</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Something's wrong...!!
+Are they blowing up the lab to bury their evidence!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Something is wrong...!!
+I think they're blowing up the lab to cover their tracks...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Ok! Eenie meenie miney... Mo!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It opened...!
+Get out of here!!
+I've got you, Lime!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hey!
+Allow me to buy the switch!
+Give it here!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Eh!? You'll give me money!?
+I like the sound of that-!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;My friends are more important than money.
+That should be obvious.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Without a reputation, you shouldn't make a deal.
+I suppose that was more of a donation?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You won fair and square.
+I admit it.
+You took us completely by surprise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You are correct. Succubi are proud,
+independant beings, who keep to themselves.
+Normally, you'd be correct to say that.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hurry and open us up, nya!
+Just press any button!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Chocolat.
+Tell everyone what's happening.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Succubi, and hunter siblings.
+I've been monitoring your every move.
+Of course, I know all about the escape game.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;That's 500 thousand G!
+I've been hoarding my savings without ever spending it...!
+That's all of it!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Fu-fu-fu-fu-five hundred thousand!?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -884,28 +1676,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1195,1125 +2003,1716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B50" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B52" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B69" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B71" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B86" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B87" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B89" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B90" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B91" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B92" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B93" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B94" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B95" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B96" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B97" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B98" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B99" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B100" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B103" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B104" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B105" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B108" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B109" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B112" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B113" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B114" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B115" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B118" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B119" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B122" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B123" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B124" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B125" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B129" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B130" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B131" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B132" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B133" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B134" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B135" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B153" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B166" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B168" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B177" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B179" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B180" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B181" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B195" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>